--- a/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 5,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,42</t>
+          <t>0,0; 15,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,65</t>
+          <t>0,0; 9,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,05</t>
+          <t>1,04; 8,87</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 17,77</t>
+          <t>3,13; 16,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 13,85</t>
+          <t>3,83; 13,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 13,56</t>
+          <t>4,74; 13,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,51</t>
+          <t>0,0; 23,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 12,84</t>
+          <t>2,13; 12,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,95</t>
+          <t>2,53; 14,67</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,88</t>
+          <t>0,0; 7,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 5,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,65</t>
+          <t>0,29; 3,91</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 9,46</t>
+          <t>1,0; 9,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>0,46; 4,62</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 15,33</t>
+          <t>3,51; 14,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,48</t>
+          <t>3,57; 10,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,08</t>
+          <t>4,37; 10,39</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,05</t>
+          <t>0,57; 5,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,45</t>
+          <t>1,07; 7,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,16</t>
+          <t>1,22; 5,33</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,24</t>
+          <t>2,54; 6,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,68</t>
+          <t>3,02; 5,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,49</t>
+          <t>3,13; 5,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,24</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,52</t>
+          <t>0,0; 15,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,85</t>
+          <t>0,0; 10,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 8,87</t>
+          <t>1,09; 9,05</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 16,53</t>
+          <t>2,86; 17,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,98</t>
+          <t>4,24; 13,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 13,05</t>
+          <t>4,88; 13,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,12</t>
+          <t>0,0; 24,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,26</t>
+          <t>2,32; 12,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 14,67</t>
+          <t>2,54; 13,95</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,63</t>
+          <t>0,0; 7,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>0,0; 4,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,91</t>
+          <t>0,26; 3,65</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,23</t>
+          <t>0,92; 9,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,62</t>
+          <t>0,0; 4,48</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 14,93</t>
+          <t>3,43; 15,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,57; 10,26</t>
+          <t>3,52; 10,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,39</t>
+          <t>4,24; 10,08</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,99</t>
+          <t>0,56; 6,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,4</t>
+          <t>1,19; 7,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,33</t>
+          <t>1,15; 5,16</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,02</t>
+          <t>2,49; 6,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,74</t>
+          <t>3,03; 5,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,38</t>
+          <t>3,12; 5,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,42</t>
+          <t>0,0; 15,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,65</t>
+          <t>0,0; 10,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,05</t>
+          <t>1,06; 8,94</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 17,77</t>
+          <t>2,87; 17,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 13,85</t>
+          <t>4,23; 13,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 13,56</t>
+          <t>4,86; 13,57</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,51</t>
+          <t>0,0; 24,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 12,84</t>
+          <t>2,35; 12,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,95</t>
+          <t>2,58; 14,32</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,34%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,88</t>
+          <t>0,0; 7,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 4,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,65</t>
+          <t>0,27; 3,68</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 9,46</t>
+          <t>0,93; 9,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,69%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 15,33</t>
+          <t>3,37; 15,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,48</t>
+          <t>3,5; 10,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,08</t>
+          <t>4,18; 9,92</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,05</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,45</t>
+          <t>1,19; 7,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,16</t>
+          <t>0,25; 3,76</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,24</t>
+          <t>1,16; 5,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,68</t>
+          <t>3,04; 5,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,49</t>
+          <t>2,08; 4,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -584,19 +585,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 5,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,36</t>
+          <t>0,0; 15,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,3</t>
+          <t>0,0; 10,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,94</t>
+          <t>0,96; 8,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 17,72</t>
+          <t>3,78; 17,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 13,87</t>
+          <t>3,95; 14,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 13,57</t>
+          <t>4,82; 13,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,33</t>
+          <t>0,0; 20,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,93</t>
+          <t>2,33; 12,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 14,32</t>
+          <t>2,78; 15,51</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>0,0; 5,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,68</t>
+          <t>0,29; 3,87</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -834,19 +835,19 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,51</t>
+          <t>0,97; 8,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,4</t>
+          <t>0,48; 4,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 15,06</t>
+          <t>3,18; 13,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,31</t>
+          <t>3,31; 10,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,92</t>
+          <t>4,18; 10,07</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,23</t>
+          <t>1,04; 7,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,76</t>
+          <t>0,22; 3,99</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,13</t>
+          <t>1,25; 5,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,65</t>
+          <t>3,03; 5,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,78</t>
+          <t>2,09; 4,81</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dificultades para tener un embarazo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1901</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3435</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3970</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2905</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9581</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6286</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1195; 10733</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6350</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6063</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12413</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2835; 12830</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2977; 10974</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7255; 19628</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4361</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8596</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13815</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1622; 8784</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3804; 21186</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1629</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2877</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3548</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>347; 4697</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2142</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2142</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1694</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>624; 5606</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>652; 6468</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7959</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>17347</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3371; 14813</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5074; 15459</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>10830; 26106</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>8517</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 16791</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1406; 9553</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1130; 20771</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>26491</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>29437</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>55929</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>10962; 44316</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>21071; 39850</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>32890; 75740</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>